--- a/biology/Zoologie/Anystina/Anystina.xlsx
+++ b/biology/Zoologie/Anystina/Anystina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anystina forment une cohorte d'acariens de l'ordre des Trombidiformes et du sous-ordre des Prostigmata.
 </t>
@@ -511,12 +523,14 @@
           <t>Sous-taxons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Wikispecies:
 hypo-ordre Anystae
 hypo-ordre Parasitengona
-Selon BioLib                    (23 août 2019)[2]:
+Selon BioLib                    (23 août 2019):
 super-famille Adamystoidea
 super-famille Anystoidea
 super-famille Arrenuroidea
@@ -561,7 +575,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) A revised classification of the mites (Arachnidea, Acarida) with diagnoses, a key, and notes on phylogeny. L Van der Hammen, Zool Meded Leiden, 1972.
